--- a/medicine/Enfance/Émile_Jadoul/Émile_Jadoul.xlsx
+++ b/medicine/Enfance/Émile_Jadoul/Émile_Jadoul.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89mile_Jadoul</t>
+          <t>Émile_Jadoul</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Émile Jadoul, né le 7 janvier 1963 à Avennes (province de Liège), est un illustrateur, auteur de littérature d'enfance et de jeunesse belge.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89mile_Jadoul</t>
+          <t>Émile_Jadoul</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Émile Jadoul naît le 7 janvier 1963[1] à Avennes[2]. Après des études à l'École supérieure des arts Saint-Luc de Liège[3], il commence à publier des albums illustrés aux éditions Casterman et chez Pastel, la branche belge des éditions L'École des loisirs[4]. Il a aussi écrit et illustré quelques albums pour Bayard presse (L'Éléphant Jean-Louis)[5]. Il a également collaboré avec les éditions Milan[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Émile Jadoul naît le 7 janvier 1963 à Avennes. Après des études à l'École supérieure des arts Saint-Luc de Liège, il commence à publier des albums illustrés aux éditions Casterman et chez Pastel, la branche belge des éditions L'École des loisirs. Il a aussi écrit et illustré quelques albums pour Bayard presse (L'Éléphant Jean-Louis). Il a également collaboré avec les éditions Milan.
 Plusieurs de ses livres sont traduits en italien et en castillan. Son album Par la fenêtre est traduit en anglais en 2004 chez Zero to Ten sous le titre Look Out! It's the Wolf !
-Ses albums sont souvent conseillés dans les ouvrages scolaires du primaire[7]. Les livres Gros Pipi et Des livres plein la maison sont recommandés depuis 2017 par l'Éducation nationale française pour le Cycle 1[8].
+Ses albums sont souvent conseillés dans les ouvrages scolaires du primaire. Les livres Gros Pipi et Des livres plein la maison sont recommandés depuis 2017 par l'Éducation nationale française pour le Cycle 1.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89mile_Jadoul</t>
+          <t>Émile_Jadoul</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,8 +560,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Texte et illustration
-Sous un caillou, Casterman, 1998
+          <t>Texte et illustration</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Sous un caillou, Casterman, 1998
 Badaboum, Pastel, 1998
 Amoureux, Casterman, 2000
 Où es-tu, Lune ?, Pastel, 2001
@@ -588,12 +607,46 @@
 Une histoire à grosse voix, Pastel, 2018
 Souffle Marcel !, Pastel, 2018
 On dit bonjour !, Pastel, 2019  (ISBN 9782211239103)
-1, 2, 3, sauter ![9], Pastel, 2022  (ISBN 9782211315395)
-Gros pipi[9], L’École des loisirs, coll. « Petit Loulou » , 2022  (ISBN 9782211200257)
-À l'école, Léon ![9], Pastel, 2022  (ISBN 9782211320573)
-On dit merci ![9], Pastel, 2024  (ISBN 9782211334174)
-Illustration
-Nila Palmer, Pas si vite, Marguerite !, Pastel, 1996
+1, 2, 3, sauter !, Pastel, 2022  (ISBN 9782211315395)
+Gros pipi, L’École des loisirs, coll. « Petit Loulou » , 2022  (ISBN 9782211200257)
+À l'école, Léon !, Pastel, 2022  (ISBN 9782211320573)
+On dit merci !, Pastel, 2024  (ISBN 9782211334174)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Émile_Jadoul</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89mile_Jadoul</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Illustration</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Nila Palmer, Pas si vite, Marguerite !, Pastel, 1996
 Rascal, Et ta sœur ?, Pastel, 1999
 Rascal, Mon papou, Pastel, 1999
 Rascal, Une cuillère pour…, Pastel, 2000
@@ -609,53 +662,126 @@
 Jean Leroy, Canaille n’aime pas la soupe, Casterman, 2013
 Jean Leroy, Canaille va à la pêche, Casterman, 2013
 Jean Leroy, Canaille fête son anniversaire, Casterman, 2013
-Carl Norac, Le Petit Ballon de la lune, Pastel, 2013
-Texte
-La Petite Reine, illustré par Catherine Pineur, Pastel/L'École des loisirs, 2003
+Carl Norac, Le Petit Ballon de la lune, Pastel, 2013</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Émile_Jadoul</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89mile_Jadoul</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Texte</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>La Petite Reine, illustré par Catherine Pineur, Pastel/L'École des loisirs, 2003
 À quoi ça sert une maman ?, illustré par Catherine Pineur, Pastel/L'École des loisirs, 2008
 C'est encore loin, Papa ?, illustré par Catherine Pineur, Pastel/L'École des loisirs, 2009
 La Tête à la dispute, illustré par Catherine Pineur, Pastel/L'École des loisirs, 2011
 Petites graines, illustré par Catherine Pineur, Pastel/L'École des loisirs, 2012
 Comme un secret, illustré par Catherine Pineur, Pastel/L'École des loisirs, 2013
 Ça sent bon la maman, illustré par Claude K. Dubois, Pastel/L'École des loisirs, 2013
-Va, mon Achille !, illustré par Catherine Pineur, Pastel/L'École des loisirs, 2016
-Bande dessinée
-Rourke
-La Mort est toujours bonne, Dupuis, 1991  (ISBN 2-8001-1843-1),Adaptation de Paul-Loup Sulitzer.
+Va, mon Achille !, illustré par Catherine Pineur, Pastel/L'École des loisirs, 2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Émile_Jadoul</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89mile_Jadoul</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Bande dessinée</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Rourke</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>La Mort est toujours bonne, Dupuis, 1991  (ISBN 2-8001-1843-1),Adaptation de Paul-Loup Sulitzer.
 2 Le Bon Dieu ne dort jamais, Dupuis, coll. « Sulitzer », Marcinelle, décembre 1992Scénario : Marcel Rouffa - Dessin : Marvano - Couleurs : Émile Jadoul -  (ISBN 2800119624)
 3 Les Trois Concubines, Dupuis, coll. « Sulitzer », Marcinelle, avril 1994Scénario : Marcel Rouffa - Dessin : Marvano - Couleurs : Émile Jadoul -  (ISBN 2800121041)
 4 Tigre d'avril, Dupuis, coll. « Sulitzer », Marcinelle, mars 1995Scénario : Marcel Rouffa - Dessin : Marvano - Couleurs : Émile Jadoul -  (ISBN 2800121890)</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>%C3%89mile_Jadoul</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Émile_Jadoul</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/%C3%89mile_Jadoul</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Prix Libbylit (section belge de l'IBBY) 2012 pour Les Mains de papa[10], qu'il a écrit et illustré ;
-2014 :  Premio nazionale Nati per Leggere du Salon international du livre (Turin) pour Les Mains de papa[11].</t>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Prix Libbylit (section belge de l'IBBY) 2012 pour Les Mains de papa, qu'il a écrit et illustré ;
+2014 :  Premio nazionale Nati per Leggere du Salon international du livre (Turin) pour Les Mains de papa.</t>
         </is>
       </c>
     </row>
